--- a/data/IHub_Reconciliatuion_hist.xlsx
+++ b/data/IHub_Reconciliatuion_hist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejas\Anomaly_detect_on_recon\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejas\sradg-ai-newbies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28FE484-2585-45A9-A9A3-2207EC27AF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662B88F5-CFFB-4867-9B24-0B84F1FEE3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DDCC9B24-B6F6-4B9B-A1D4-E5280E3AC4F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="28">
   <si>
     <t>Account</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Difference is within tolerance (less than 1 USD)</t>
-  </si>
-  <si>
-    <t>EUR</t>
   </si>
   <si>
     <t>00000</t>
@@ -514,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A2CD30-6CEF-415A-B0C1-0953251EFCEB}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>1619205</v>
@@ -613,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>1619205</v>
@@ -648,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>1619205</v>
@@ -683,7 +680,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>1619205</v>
@@ -721,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>1619205</v>
@@ -756,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>1619205</v>
@@ -791,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>1619288</v>
@@ -826,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>1619288</v>
@@ -861,7 +858,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>1619288</v>
@@ -896,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>1619288</v>
@@ -931,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>1619288</v>
@@ -966,7 +963,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>1619288</v>
@@ -1001,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
         <v>1618001</v>
@@ -1036,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>1618001</v>
@@ -1074,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
         <v>1618001</v>
@@ -1109,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <v>1618001</v>
@@ -1147,7 +1144,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2">
         <v>1618001</v>
@@ -1183,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
         <v>1618001</v>
@@ -1213,222 +1210,6 @@
         <v>24</v>
       </c>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1619205</v>
-      </c>
-      <c r="D20" s="2">
-        <v>4929</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="2">
-        <v>60000</v>
-      </c>
-      <c r="I20" s="2">
-        <v>70000</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1619205</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4929</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I21" s="2">
-        <v>60000</v>
-      </c>
-      <c r="J21" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1619205</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4929</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="2">
-        <v>40000</v>
-      </c>
-      <c r="I22" s="2">
-        <v>50000</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1619205</v>
-      </c>
-      <c r="D23" s="2">
-        <v>4929</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="2">
-        <v>30000</v>
-      </c>
-      <c r="I23" s="2">
-        <v>40000</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1619205</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4929</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="2">
-        <v>20000</v>
-      </c>
-      <c r="I24" s="2">
-        <v>30000</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1619205</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4929</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I25" s="2">
-        <v>20000</v>
-      </c>
-      <c r="J25" s="1">
-        <v>-10000</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
